--- a/usuarios_senhas.xlsx
+++ b/usuarios_senhas.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28906"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A02BB7CC-7407-4A39-B4C4-00DCBF18366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>usuario</t>
   </si>
@@ -57,13 +53,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,15 +73,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,19 +97,348 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -122,31 +461,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -433,25 +1055,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -467,183 +1089,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>1220</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>156426</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8">
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>238</v>
-      </c>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>239</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>249</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{9BCF0195-9F7E-4C09-A930-CCB5FE8C364C}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{A1243B60-76D9-464A-ADDB-83C27848EBBD}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{A3F6718F-5358-4130-9A62-87823F270A53}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{38750EA8-37E1-407F-837C-96335E4DBCB6}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{92D97805-A828-4785-857E-315461269EEC}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{3592B796-C65A-4FCC-B07A-E02E9C8AADC5}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{5C99350D-6292-4FCF-B177-1C78B03625C8}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{17506B7B-5D4B-43C4-8A78-F3667F84B18B}"/>
-    <hyperlink ref="A14" r:id="rId9" xr:uid="{88D99C30-1D7C-4B07-9179-D337285849A1}"/>
-    <hyperlink ref="A17" r:id="rId10" xr:uid="{0107CA12-AC90-4EFB-933E-5D8E86A254D5}"/>
-    <hyperlink ref="A20" r:id="rId11" xr:uid="{8C4061F3-788A-4E10-A3BE-32FF7F7F5341}"/>
-    <hyperlink ref="A9" r:id="rId12" xr:uid="{96A2A9FB-0CD0-403B-8FC4-0AF0758D031D}"/>
-    <hyperlink ref="A12" r:id="rId13" xr:uid="{F5845A5F-2044-471B-B72B-65D210EBAC64}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{344DEC27-1B16-4E02-A1DA-77EDD7BA5C06}"/>
-    <hyperlink ref="A18" r:id="rId15" xr:uid="{B37D61F8-65E8-4942-8251-70BD132FB5DE}"/>
-    <hyperlink ref="A21" r:id="rId16" xr:uid="{F62FBB52-82B9-4B95-84F1-1549BF89B510}"/>
-    <hyperlink ref="A10" r:id="rId17" xr:uid="{98AD6B32-7642-496A-9AE5-26191F94250E}"/>
-    <hyperlink ref="A13" r:id="rId18" xr:uid="{CE6A5F8B-C2ED-4449-9FB6-495D035026E0}"/>
-    <hyperlink ref="A16" r:id="rId19" xr:uid="{0CE99B8F-4170-4061-B291-CC31B7E8DB0C}"/>
-    <hyperlink ref="A19" r:id="rId20" xr:uid="{3FD75F49-63D1-4D1C-9223-0578BD1AF768}"/>
-    <hyperlink ref="A21" r:id="rId21" display="teste05@gmail.com" xr:uid="{B80C60F3-8EA2-40D8-AB1F-C8B84E046F24}"/>
+    <hyperlink ref="A2" r:id="rId1" display="nnidrgsyg8257@hotmail.com" tooltip="mailto:nnidrgsyg8257@hotmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="teste03@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="teste05@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId2" display="teste03@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId4" display="teste04@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId3" display="teste05@gmail.com"/>
+    <hyperlink ref="A8" r:id="rId2" display="teste03@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>